--- a/TPs/LuchadoresJaponeses/Planilla de Métricas.xlsx
+++ b/TPs/LuchadoresJaponeses/Planilla de Métricas.xlsx
@@ -819,18 +819,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,93 +848,25 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1066,7 +986,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Métricas!$B$28:$D$32</c:f>
+              <c:f>Métricas!$B$27:$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1089,7 +1009,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Métricas!$E$28:$E$32</c:f>
+              <c:f>Métricas!$E$27:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1100,13 +1020,13 @@
                   <c:v>2.4305555555555525E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.2500000000000888E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.083333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,13 +1082,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1481,7 +1401,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1713,14 +1633,14 @@
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="61" t="s">
         <v>12</v>
       </c>
@@ -1728,8 +1648,8 @@
       <c r="H11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="61" t="s">
         <v>16</v>
       </c>
@@ -1745,10 +1665,10 @@
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="18" t="s">
         <v>13</v>
       </c>
@@ -1802,14 +1722,18 @@
         <f>IFERROR(IF(OR(ISBLANK(H13),ISBLANK(I13)),"Completar",IF(I13&gt;=H13,I13-H13,"Error")),"Error")</f>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="K13" s="51">
+        <v>0</v>
+      </c>
+      <c r="L13" s="52">
+        <v>0</v>
+      </c>
       <c r="M13" s="53">
         <v>33</v>
       </c>
-      <c r="N13" s="25" t="str">
+      <c r="N13" s="25">
         <f>IFERROR(IF(OR(J13="Completar",ISBLANK(L13)),"Completar",J13+L13),"Error")</f>
-        <v>Completar</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="11"/>
@@ -1817,7 +1741,7 @@
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="24">
-        <f t="shared" ref="B14:B16" si="0">ROW($B14)-12</f>
+        <f t="shared" ref="B14:B15" si="0">ROW($B14)-12</f>
         <v>2</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -1838,17 +1762,21 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14:J16" si="1">IFERROR(IF(OR(ISBLANK(H14),ISBLANK(I14)),"Completar",IF(I14&gt;=H14,I14-H14,"Error")),"Error")</f>
+        <f t="shared" ref="J14:J15" si="1">IFERROR(IF(OR(ISBLANK(H14),ISBLANK(I14)),"Completar",IF(I14&gt;=H14,I14-H14,"Error")),"Error")</f>
         <v>3.4722222222221544E-3</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="K14" s="51">
+        <v>0</v>
+      </c>
+      <c r="L14" s="52">
+        <v>0</v>
+      </c>
       <c r="M14" s="53">
         <v>22</v>
       </c>
-      <c r="N14" s="25" t="str">
-        <f t="shared" ref="N14:N16" si="2">IFERROR(IF(OR(J14="Completar",ISBLANK(L14)),"Completar",J14+L14),"Error")</f>
-        <v>Completar</v>
+      <c r="N14" s="25">
+        <f t="shared" ref="N14:N15" si="2">IFERROR(IF(OR(J14="Completar",ISBLANK(L14)),"Completar",J14+L14),"Error")</f>
+        <v>3.4722222222221544E-3</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="11"/>
@@ -1873,237 +1801,244 @@
       <c r="H15" s="49">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="20" t="str">
+      <c r="I15" s="50">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>Completar</v>
-      </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="25" t="str">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="K15" s="51">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M15" s="53">
+        <v>70</v>
+      </c>
+      <c r="N15" s="25">
         <f t="shared" si="2"/>
-        <v>Completar</v>
+        <v>1.7361111111111174E-2</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="24">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="26">
+        <f>SUM(F13:F15)</f>
+        <v>160</v>
+      </c>
+      <c r="G16" s="27">
+        <f>SUM(G13:G15)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30">
+        <f>IF(OR(COUNTIF(J13:J15,"Error")&gt;0,COUNTIF(J13:J15,"Completar")&gt;0),"Error",SUM(J13:J15))</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="K16" s="31">
+        <f>SUM(K13:K15)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="27">
+        <f>SUM(L13:L15)</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M16" s="32">
+        <f>SUM(M13:M15)</f>
+        <v>125</v>
+      </c>
+      <c r="N16" s="33">
+        <f>IF(OR(COUNTIF(N13:N15,"Error")&gt;0,COUNTIF(N13:N15,"Completar")&gt;0),"Error",SUM(N13:N15))</f>
+        <v>2.4305555555555594E-2</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" s="7" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Completar</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Completar</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="26">
-        <f>SUM(F13:F16)</f>
-        <v>160</v>
-      </c>
-      <c r="G17" s="27">
-        <f>SUM(G13:G16)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30" t="str">
-        <f>IF(OR(COUNTIF(J13:J16,"Error")&gt;0,COUNTIF(J13:J16,"Completar")&gt;0),"Error",SUM(J13:J16))</f>
-        <v>Error</v>
-      </c>
-      <c r="K17" s="31">
-        <f>SUM(K13:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
-        <f>SUM(L13:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <f>SUM(M13:M16)</f>
-        <v>55</v>
-      </c>
-      <c r="N17" s="33" t="str">
-        <f>IF(OR(COUNTIF(N13:N16,"Error")&gt;0,COUNTIF(N13:N16,"Completar")&gt;0),"Error",SUM(N13:N16))</f>
-        <v>Error</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="33" t="str">
-        <f>IFERROR(IF(OR(ISBLANK(C21),ISBLANK(D21)),"Completar",IF(D21&gt;=C21,D21-C21,"Error")),"Error")</f>
-        <v>Completar</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" s="7" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="45">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="E20" s="33">
+        <f>IFERROR(IF(OR(ISBLANK(C20),ISBLANK(D20)),"Completar",IF(D20&gt;=C20,D20-C20,"Error")),"Error")</f>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="82">
+        <f>M16</f>
+        <v>125</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="72">
-        <f>M17</f>
-        <v>55</v>
-      </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="38"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="84">
+        <f>IF(M16=0,0,IFERROR(M16/(N16*24),"Error"))</f>
+        <v>214.28571428571394</v>
+      </c>
+      <c r="F24" s="85"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="74" t="str">
-        <f>IF(M17=0,0,IFERROR(M17/(N17*24),"Error"))</f>
-        <v>Error</v>
-      </c>
-      <c r="F25" s="75"/>
+      <c r="E25" s="82">
+        <f>IF(K16=0,0,IFERROR(ROUNDUP(K16/(M16/100),0),"Error"))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="83"/>
       <c r="G25" s="36"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -2115,15 +2050,15 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="72">
-        <f>IF(K17=0,0,IFERROR(ROUNDUP(K17/(M17/100),0),"Error"))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="73"/>
+      <c r="E26" s="74">
+        <f>IF(K16=0,0,IFERROR(K16/M16,"Error"))</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F26" s="75"/>
       <c r="G26" s="36"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -2135,15 +2070,18 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="78">
-        <f>IF(K17=0,0,IFERROR(K17/M17,"Error"))</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="79"/>
+      <c r="E27" s="43">
+        <f>E4</f>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" ref="F27:F31" si="3">IF(E27="Completar",E27,IFERROR(E27/$E$32,"Error"))</f>
+        <v>0.10227272727272678</v>
+      </c>
       <c r="G27" s="36"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2155,17 +2093,17 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
       <c r="E28" s="43">
-        <f>E4</f>
-        <v>6.2499999999999778E-3</v>
-      </c>
-      <c r="F28" s="44" t="str">
-        <f t="shared" ref="F28:F32" si="3">IF(E28="Completar",E28,IFERROR(E28/$E$33,"Error"))</f>
-        <v>Error</v>
+        <f>E8</f>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="3"/>
+        <v>0.39772727272727176</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="37"/>
@@ -2178,17 +2116,17 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="E29" s="43">
-        <f>E8</f>
-        <v>2.4305555555555525E-2</v>
-      </c>
-      <c r="F29" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>Error</v>
+        <f>E20</f>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F29" s="44">
+        <f>IF(E29="Completar",E29,IFERROR(E29/$E$32,"Error"))</f>
+        <v>0.1022727272727286</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="37"/>
@@ -2201,17 +2139,17 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="43" t="str">
-        <f>E21</f>
-        <v>Completar</v>
-      </c>
-      <c r="F30" s="44" t="str">
-        <f>IF(E30="Completar",E30,IFERROR(E30/$E$33,"Error"))</f>
-        <v>Completar</v>
+      <c r="E30" s="43">
+        <f>L16</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" si="3"/>
+        <v>5.6818181818181747E-2</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
@@ -2224,17 +2162,17 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
       <c r="E31" s="43">
-        <f>L17</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="44" t="str">
+        <f>J16</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F31" s="44">
         <f t="shared" si="3"/>
-        <v>Error</v>
+        <v>0.34090909090909111</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
@@ -2245,53 +2183,31 @@
       <c r="M31" s="37"/>
       <c r="N31" s="39"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="43" t="str">
-        <f>J17</f>
-        <v>Error</v>
-      </c>
-      <c r="F32" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>Error</v>
-      </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="39"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="83" t="s">
+    <row r="32" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="80" t="str">
-        <f>IF(COUNTIF(E28:E32,"Error")=0,SUM(E28:E32),"Error")</f>
-        <v>Error</v>
-      </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42"/>
-    </row>
-    <row r="34" spans="1:15" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="O34" s="16"/>
-    </row>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="76">
+        <f>IF(COUNTIF(E27:E31,"Error")=0,SUM(E27:E31),"Error")</f>
+        <v>6.1111111111111185E-2</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="1:15" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
@@ -2315,36 +2231,35 @@
     <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <mergeCells count="37">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B23:N23"/>
+  <mergeCells count="36">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B22:N22"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="C11:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N11:N12"/>
@@ -2353,15 +2268,15 @@
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
